--- a/Erythraean/CostAnalysis.xlsx
+++ b/Erythraean/CostAnalysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsant\Documents\EE31_Erythraean\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelsey\Documents\EE31\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A19A920-D4DE-4D08-9753-ADA8A0BA2234}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CABE5AA-14BE-4A97-8501-47AE1AF2DCD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{BCC722C2-F092-42FA-BB8F-D6C09851ECFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{BCC722C2-F092-42FA-BB8F-D6C09851ECFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Item Cost" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,23 @@
     <sheet name="Kelsey's Hours" sheetId="3" r:id="rId3"/>
     <sheet name="Ben's Hours" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>Item</t>
   </si>
@@ -118,14 +124,139 @@
   </si>
   <si>
     <t>Total Project Manager Hours</t>
+  </si>
+  <si>
+    <t>5.1 kOhm resistor</t>
+  </si>
+  <si>
+    <t>1 kOhm resistor</t>
+  </si>
+  <si>
+    <t>Hall effect sensor</t>
+  </si>
+  <si>
+    <t>Photodode</t>
+  </si>
+  <si>
+    <t>Limit switch</t>
+  </si>
+  <si>
+    <t>741 op amp</t>
+  </si>
+  <si>
+    <t>Yellow LED</t>
+  </si>
+  <si>
+    <t>resistors</t>
+  </si>
+  <si>
+    <t>capacitors</t>
+  </si>
+  <si>
+    <t>balsa wood</t>
+  </si>
+  <si>
+    <t>AND gate</t>
+  </si>
+  <si>
+    <t>7 segment display</t>
+  </si>
+  <si>
+    <t>bolts</t>
+  </si>
+  <si>
+    <t>aluminum sheet metal</t>
+  </si>
+  <si>
+    <t>male headers</t>
+  </si>
+  <si>
+    <t>1.5 V batteries</t>
+  </si>
+  <si>
+    <t>heat shrink</t>
+  </si>
+  <si>
+    <t>electrical tape</t>
+  </si>
+  <si>
+    <t>wheels</t>
+  </si>
+  <si>
+    <t>protoboards</t>
+  </si>
+  <si>
+    <t>2N3904 npn transistor</t>
+  </si>
+  <si>
+    <t>2N3906 pnp transistor</t>
+  </si>
+  <si>
+    <t>cls0201ma Speaker</t>
+  </si>
+  <si>
+    <t>SP-1504 Speaker</t>
+  </si>
+  <si>
+    <t>CMA-4544PF Microphone</t>
+  </si>
+  <si>
+    <t>solder wick</t>
+  </si>
+  <si>
+    <t>ln914 fs Diode</t>
+  </si>
+  <si>
+    <t>dpdt mini switch</t>
+  </si>
+  <si>
+    <t>1067 Machine Hex Nut</t>
+  </si>
+  <si>
+    <t>LM78XX Votage Regulator</t>
+  </si>
+  <si>
+    <t>Mini Plastic Gearmotor</t>
+  </si>
+  <si>
+    <t>16 pin dip ic pc socket</t>
+  </si>
+  <si>
+    <t>8 pin dip ic pc socket</t>
+  </si>
+  <si>
+    <t>Breadboard jumper</t>
+  </si>
+  <si>
+    <t>Duracell 9 V battery</t>
+  </si>
+  <si>
+    <t>Pololu Ball Caster (1")</t>
+  </si>
+  <si>
+    <t>Kester 44 Rosin Core Solder</t>
+  </si>
+  <si>
+    <t>Total Materials Cost</t>
+  </si>
+  <si>
+    <t>Total Labor Costs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -153,8 +284,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EE7172-F8F6-4382-BACC-2EF4BC6992B1}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection sqref="A1:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,16 +615,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -504,15 +636,15 @@
         <v>0.3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D9" si="0">B2*C2</f>
-        <v>0.3</v>
+        <f>'Item Cost'!B2*'Item Cost'!C2</f>
+        <v>0.89999999999999991</v>
       </c>
       <c r="E2">
-        <f>SUM(D2:D15)</f>
-        <v>51.680000000000014</v>
+        <f>SUM(D2:D52)</f>
+        <v>232.45500000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -523,11 +655,11 @@
         <v>0.3</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
+        <f t="shared" ref="D2:D9" si="0">B3*C3</f>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -538,11 +670,11 @@
         <v>0.3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -583,11 +715,11 @@
         <v>0.15</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -613,11 +745,11 @@
         <v>2.95</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>2.95</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -628,11 +760,11 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D10">
         <f t="shared" ref="D10:D53" si="1">B10*C10</f>
-        <v>0.09</v>
+        <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -703,239 +835,575 @@
         <v>0.105</v>
       </c>
       <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>0.3</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>0.3</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>2.5</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>1.5</v>
+      </c>
+      <c r="C20">
         <v>6</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>0.6</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>0.3</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>0.2</v>
+      </c>
+      <c r="C23">
+        <v>34</v>
+      </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+        <v>6.8000000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>0.1</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>0.42</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <v>0.42</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27">
+        <v>1.5</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>3.87</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+        <v>7.74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>1.87</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30">
+        <v>0.65</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>0.51</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32">
+        <v>0.16</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>0.85</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34">
+        <v>2.5</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>0.25</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36">
+        <v>0.89</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37">
+        <v>5.49</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+        <v>10.98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38">
+        <v>21.83</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+        <v>21.83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>1.5</v>
+      </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>3.5</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>0.1</v>
+      </c>
+      <c r="C41">
+        <v>50</v>
+      </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42">
+        <v>0.1</v>
+      </c>
+      <c r="C42">
+        <v>40</v>
+      </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+        <v>9.9600000000000009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>2.1</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>1.5</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>3.5</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>7.95</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>3.16</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+        <v>18.96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49">
+        <v>4.3</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50">
+        <v>1.19</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51">
+        <v>1.5</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D53">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="1">
+        <f>SUM(D2:D52)</f>
+        <v>232.45500000000001</v>
       </c>
     </row>
   </sheetData>
@@ -945,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A962B6E-3289-46D8-B9D8-E21BB62C85AC}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,16 +1428,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -981,11 +1449,11 @@
         <v>42.19</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="D2">
         <f>B2*C2</f>
-        <v>1940.7399999999998</v>
+        <v>8522.3799999999992</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -996,11 +1464,11 @@
         <v>26.31</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D4" si="0">B3*C3</f>
-        <v>52.62</v>
+        <v>1946.9399999999998</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1011,36 +1479,34 @@
         <v>66.11</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>1983.3</v>
+        <v>3834.38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D5">
+      <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1">
         <f>SUM(D2:D4)</f>
-        <v>3976.66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D6">
-        <f>3976.66+51.68</f>
-        <v>4028.3399999999997</v>
+        <v>14303.7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F61ADB-D5D3-4F52-9315-6BC944544506}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1064,12 +1530,12 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1">
         <f>SUM(B2:B7)</f>
-        <v>23</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1085,12 +1551,12 @@
       <c r="D2">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <f>SUM(C2:C7)</f>
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1106,12 +1572,54 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <f>SUM(D2:D7)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>19</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1121,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA72AAB-555F-4D6B-8E61-F403661F5E79}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1149,12 +1657,12 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1">
         <f>SUM(B2:B7)</f>
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1170,12 +1678,12 @@
       <c r="D2">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <f>SUM(C2:C7)</f>
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1191,12 +1699,54 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <f>SUM(D2:D7)</f>
-        <v>11</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
